--- a/лабы/lab2/lab2.xlsx
+++ b/лабы/lab2/lab2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gwert\_itmo\электротехника\лабы\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069209A8-5AB5-40CA-821E-6A6E56A3699B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFBB294-8101-4425-B456-3C71509796BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
   <si>
     <t>R, [Ом]</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>I(0+) [A]</t>
+  </si>
+  <si>
+    <t>с-1</t>
   </si>
 </sst>
 </file>
@@ -331,6 +334,13 @@
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -343,13 +353,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -633,7 +636,7 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="M5" sqref="M5:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,8 +651,8 @@
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="10" max="10" width="11.109375" customWidth="1"/>
     <col min="11" max="11" width="10.109375" customWidth="1"/>
-    <col min="17" max="17" width="10.88671875" customWidth="1"/>
-    <col min="18" max="18" width="10.109375" customWidth="1"/>
+    <col min="17" max="17" width="14.88671875" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -689,24 +692,24 @@
       <c r="P1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="9">
         <v>120</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="9">
         <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -727,13 +730,13 @@
       <c r="H2" s="1">
         <v>11975</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="9">
         <v>120</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="9">
         <v>144</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="9">
         <v>25</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -753,8 +756,8 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
@@ -773,9 +776,9 @@
       <c r="H3" s="1">
         <v>12000</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
       <c r="P3" s="1" t="s">
         <v>7</v>
       </c>
@@ -792,6 +795,7 @@
         <v>134108</v>
       </c>
     </row>
+    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
@@ -817,12 +821,30 @@
       <c r="H5" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="M5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="9">
         <v>120</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="9">
         <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -843,10 +865,28 @@
       <c r="H6" s="1">
         <v>11831</v>
       </c>
+      <c r="M6" s="9">
+        <v>60</v>
+      </c>
+      <c r="N6" s="9">
+        <v>144</v>
+      </c>
+      <c r="O6" s="9">
+        <v>25</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>-6</v>
+      </c>
+      <c r="R6" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,33 +905,45 @@
       <c r="H7" s="1">
         <v>12000</v>
       </c>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>-6</v>
+      </c>
+      <c r="R7" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="11" t="s">
+      <c r="E9" s="12"/>
+      <c r="F9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11" t="s">
+      <c r="I9" s="7"/>
+      <c r="J9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="12"/>
+      <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -921,63 +973,63 @@
       <c r="J10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
+      <c r="A11" s="4">
         <v>480</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="5">
         <v>144</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="5">
         <v>100</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="5">
         <v>-6</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="5">
         <v>-6</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="5">
         <v>12</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="5">
         <v>12</v>
       </c>
-      <c r="H11" s="9">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9">
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
         <v>134108</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="6">
         <v>136661</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
+      <c r="E13" s="12"/>
+      <c r="F13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1000,16 +1052,16 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="15">
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="N2:N3"/>
@@ -1022,6 +1074,9 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="D9:E9"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
